--- a/resource/cn/csv/Card.xlsx
+++ b/resource/cn/csv/Card.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\egret\work\egret_wqGame\resource\cn\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CBD1DC-3B81-4814-8605-9966148B15BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9249F5-CCF4-4ED2-9867-B0FD64D3B025}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32625" yWindow="1275" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -664,7 +664,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -816,7 +816,7 @@
         <v>28</v>
       </c>
       <c r="I5">
-        <v>11001</v>
+        <v>11002</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -874,7 +874,7 @@
         <v>28</v>
       </c>
       <c r="I7">
-        <v>11001</v>
+        <v>11002</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -932,7 +932,7 @@
         <v>28</v>
       </c>
       <c r="I9">
-        <v>11001</v>
+        <v>11002</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
